--- a/database/industries/zeraat/simorgh/product/quarterly.xlsx
+++ b/database/industries/zeraat/simorgh/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3199C26C-B9BA-401A-820C-1AF759273502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سیمرغ-سیمرغ</t>
@@ -192,7 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,7 +363,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -374,7 +375,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -421,6 +422,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -456,6 +474,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -607,17 +642,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -627,7 +662,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -639,7 +674,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -651,7 +686,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -661,7 +696,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -673,7 +708,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -685,7 +720,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -695,7 +730,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -717,7 +752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -727,7 +762,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -751,7 +786,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -775,7 +810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -797,7 +832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -819,7 +854,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
@@ -843,7 +878,7 @@
         <v>3936</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -867,7 +902,7 @@
         <v>17543</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -891,7 +926,7 @@
         <v>14654</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
@@ -915,7 +950,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -939,7 +974,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -963,7 +998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -987,7 +1022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>25</v>
       </c>
@@ -1011,7 +1046,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1035,7 +1070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>27</v>
       </c>
@@ -1059,7 +1094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>29</v>
       </c>
@@ -1083,7 +1118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1107,7 +1142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>32</v>
       </c>
@@ -1129,7 +1164,7 @@
         <v>40308</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1139,7 +1174,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1149,7 +1184,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1159,7 +1194,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>33</v>
       </c>
@@ -1181,7 +1216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1191,7 +1226,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>10</v>
       </c>
@@ -1215,7 +1250,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>10</v>
       </c>
@@ -1239,7 +1274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>34</v>
       </c>
@@ -1263,7 +1298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>15</v>
       </c>
@@ -1285,7 +1320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>36</v>
       </c>
@@ -1309,7 +1344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>16</v>
       </c>
@@ -1331,7 +1366,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>17</v>
       </c>
@@ -1355,7 +1390,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>18</v>
       </c>
@@ -1379,7 +1414,7 @@
         <v>16824</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>19</v>
       </c>
@@ -1403,7 +1438,7 @@
         <v>14431</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>20</v>
       </c>
@@ -1427,7 +1462,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>22</v>
       </c>
@@ -1451,7 +1486,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>23</v>
       </c>
@@ -1475,7 +1510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>24</v>
       </c>
@@ -1499,7 +1534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>25</v>
       </c>
@@ -1523,7 +1558,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>38</v>
       </c>
@@ -1547,7 +1582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>26</v>
       </c>
@@ -1571,7 +1606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>27</v>
       </c>
@@ -1595,7 +1630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>32</v>
       </c>
@@ -1617,7 +1652,7 @@
         <v>34721</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1627,7 +1662,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1637,7 +1672,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1647,7 +1682,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>39</v>
       </c>
@@ -1669,7 +1704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1679,7 +1714,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>10</v>
       </c>
@@ -1703,7 +1738,7 @@
         <v>25616</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>34</v>
       </c>
@@ -1727,7 +1762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>15</v>
       </c>
@@ -1751,7 +1786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>36</v>
       </c>
@@ -1775,7 +1810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>16</v>
       </c>
@@ -1799,7 +1834,7 @@
         <v>81106</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>17</v>
       </c>
@@ -1823,7 +1858,7 @@
         <v>25639</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>18</v>
       </c>
@@ -1847,7 +1882,7 @@
         <v>88475</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>19</v>
       </c>
@@ -1871,7 +1906,7 @@
         <v>5212476</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>20</v>
       </c>
@@ -1895,7 +1930,7 @@
         <v>114223</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>22</v>
       </c>
@@ -1919,7 +1954,7 @@
         <v>38903</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>23</v>
       </c>
@@ -1943,7 +1978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>24</v>
       </c>
@@ -1967,7 +2002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>25</v>
       </c>
@@ -1991,7 +2026,7 @@
         <v>119359</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>38</v>
       </c>
@@ -2015,7 +2050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>26</v>
       </c>
@@ -2039,7 +2074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>27</v>
       </c>
@@ -2063,7 +2098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>32</v>
       </c>
@@ -2085,7 +2120,7 @@
         <v>5705797</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2095,7 +2130,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2105,7 +2140,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2115,7 +2150,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>41</v>
       </c>
@@ -2137,7 +2172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2147,7 +2182,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>10</v>
       </c>
@@ -2171,7 +2206,7 @@
         <v>198573643</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>34</v>
       </c>
@@ -2195,7 +2230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>15</v>
       </c>
@@ -2219,7 +2254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>36</v>
       </c>
@@ -2243,7 +2278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>16</v>
       </c>
@@ -2267,7 +2302,7 @@
         <v>265052288</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>17</v>
       </c>
@@ -2291,7 +2326,7 @@
         <v>158265432</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>18</v>
       </c>
@@ -2315,7 +2350,7 @@
         <v>5258856</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>19</v>
       </c>
@@ -2339,7 +2374,7 @@
         <v>361199917</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>20</v>
       </c>
@@ -2363,7 +2398,7 @@
         <v>53201211</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>22</v>
       </c>
@@ -2387,7 +2422,7 @@
         <v>864511111</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>23</v>
       </c>
@@ -2411,7 +2446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>24</v>
       </c>
@@ -2435,7 +2470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>25</v>
       </c>
@@ -2459,7 +2494,7 @@
         <v>176305761</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>38</v>
       </c>
@@ -2483,7 +2518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>26</v>
       </c>
@@ -2507,7 +2542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>27</v>
       </c>
@@ -2531,7 +2566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2541,7 +2576,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2551,7 +2586,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2561,7 +2596,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B96" s="7" t="s">
         <v>49</v>
       </c>
@@ -2583,7 +2618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2593,7 +2628,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>50</v>
       </c>
@@ -2617,7 +2652,7 @@
         <v>5768479</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>51</v>
       </c>
@@ -2641,7 +2676,7 @@
         <v>-5572552</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>52</v>
       </c>
@@ -2665,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>32</v>
       </c>
@@ -2687,7 +2722,7 @@
         <v>195927</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2697,7 +2732,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2707,7 +2742,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2717,7 +2752,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>53</v>
       </c>
@@ -2739,7 +2774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2749,7 +2784,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>10</v>
       </c>
@@ -2773,7 +2808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>34</v>
       </c>
@@ -2797,7 +2832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>15</v>
       </c>
@@ -2821,7 +2856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>36</v>
       </c>
@@ -2845,7 +2880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>16</v>
       </c>
@@ -2869,7 +2904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>17</v>
       </c>
@@ -2893,7 +2928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>18</v>
       </c>
@@ -2917,7 +2952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>19</v>
       </c>
@@ -2941,7 +2976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>20</v>
       </c>
@@ -2965,7 +3000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>22</v>
       </c>
@@ -2989,7 +3024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>23</v>
       </c>
@@ -3013,7 +3048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>24</v>
       </c>
@@ -3037,7 +3072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>25</v>
       </c>
@@ -3061,7 +3096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>38</v>
       </c>
@@ -3085,7 +3120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>26</v>
       </c>
@@ -3109,7 +3144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>27</v>
       </c>
@@ -3133,7 +3168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="12" t="s">
         <v>32</v>
       </c>
@@ -3155,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3165,7 +3200,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -3175,7 +3210,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3185,7 +3220,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B127" s="7" t="s">
         <v>54</v>
       </c>
@@ -3207,7 +3242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3217,7 +3252,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>10</v>
       </c>
@@ -3241,7 +3276,7 @@
         <v>-144865</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>16</v>
       </c>
@@ -3265,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>17</v>
       </c>
@@ -3289,7 +3324,7 @@
         <v>-16490</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>18</v>
       </c>
@@ -3313,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>19</v>
       </c>
@@ -3337,7 +3372,7 @@
         <v>-4048726</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>20</v>
       </c>
@@ -3361,7 +3396,7 @@
         <v>-213992</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>22</v>
       </c>
@@ -3385,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>25</v>
       </c>
@@ -3409,7 +3444,7 @@
         <v>-102651</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="12" t="s">
         <v>32</v>
       </c>
@@ -3431,7 +3466,7 @@
         <v>-4526724</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3441,7 +3476,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3451,7 +3486,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3461,7 +3496,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B141" s="7" t="s">
         <v>55</v>
       </c>
@@ -3483,7 +3518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3493,7 +3528,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>10</v>
       </c>
@@ -3517,7 +3552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>34</v>
       </c>
@@ -3541,7 +3576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>15</v>
       </c>
@@ -3565,7 +3600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>36</v>
       </c>
@@ -3589,7 +3624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>16</v>
       </c>
@@ -3613,7 +3648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>17</v>
       </c>
@@ -3637,7 +3672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>18</v>
       </c>
@@ -3661,7 +3696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>19</v>
       </c>
@@ -3685,7 +3720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>20</v>
       </c>
@@ -3709,7 +3744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>22</v>
       </c>
@@ -3733,7 +3768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>23</v>
       </c>
@@ -3757,7 +3792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>24</v>
       </c>
@@ -3781,7 +3816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>25</v>
       </c>
@@ -3805,7 +3840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>38</v>
       </c>
@@ -3829,7 +3864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>26</v>
       </c>
@@ -3853,7 +3888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>27</v>
       </c>
@@ -3877,7 +3912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="12" t="s">
         <v>32</v>
       </c>
